--- a/src/hw5/Quaternion_predict.xlsx
+++ b/src/hw5/Quaternion_predict.xlsx
@@ -388,1402 +388,1402 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.9999678883568944</v>
+        <v>0.9999679111565225</v>
       </c>
       <c r="B2">
-        <v>0.007122932601733011</v>
+        <v>0.007126700918288034</v>
       </c>
       <c r="C2">
-        <v>0.00367206703593485</v>
+        <v>0.003658796265696903</v>
       </c>
       <c r="D2">
-        <v>-4.483177700108177E-05</v>
+        <v>-1.081016405326536E-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.9998389497589389</v>
+        <v>0.9998388938934631</v>
       </c>
       <c r="B3">
-        <v>0.01623215553967782</v>
+        <v>0.01623028583435327</v>
       </c>
       <c r="C3">
-        <v>0.007654396407252686</v>
+        <v>0.007665771132669628</v>
       </c>
       <c r="D3">
-        <v>-4.344097451966683E-05</v>
+        <v>5.707292366292994E-06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.9996588825212128</v>
+        <v>0.9996585050028459</v>
       </c>
       <c r="B4">
-        <v>0.02339281827193481</v>
+        <v>0.02340382571086982</v>
       </c>
       <c r="C4">
-        <v>0.01161438709442948</v>
+        <v>0.011624726877495</v>
       </c>
       <c r="D4">
-        <v>2.573241247855276E-05</v>
+        <v>-6.526397411286665E-06</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.9993918205568738</v>
+        <v>0.9993686813150657</v>
       </c>
       <c r="B5">
-        <v>0.03109772393054082</v>
+        <v>0.03247074854886067</v>
       </c>
       <c r="C5">
-        <v>0.01577488835224815</v>
+        <v>0.01441830760827695</v>
       </c>
       <c r="D5">
-        <v>0.0002710494996760075</v>
+        <v>4.124289123349097E-05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.9990315969836587</v>
+        <v>0.9990292251060516</v>
       </c>
       <c r="B6">
-        <v>0.0401954063173837</v>
+        <v>0.03973650235613578</v>
       </c>
       <c r="C6">
-        <v>0.01788304318876954</v>
+        <v>0.01901624863019626</v>
       </c>
       <c r="D6">
-        <v>0.0006279375525009722</v>
+        <v>-7.248244588176753E-06</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.9986148091427046</v>
+        <v>0.9985787001381472</v>
       </c>
       <c r="B7">
-        <v>0.04743462411279294</v>
+        <v>0.04847320137034145</v>
       </c>
       <c r="C7">
-        <v>0.02275098841034128</v>
+        <v>0.02215687680200704</v>
       </c>
       <c r="D7">
-        <v>0.0009010674282181372</v>
+        <v>3.449201868855256E-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.9980815344054609</v>
+        <v>0.9981240672729694</v>
       </c>
       <c r="B8">
-        <v>0.05664549855083578</v>
+        <v>0.05573283443423446</v>
       </c>
       <c r="C8">
-        <v>0.02488585150377867</v>
+        <v>0.02534158337626737</v>
       </c>
       <c r="D8">
-        <v>0.002287480644722823</v>
+        <v>4.060018060007545E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.9975344963224529</v>
+        <v>0.9974845336146068</v>
       </c>
       <c r="B9">
-        <v>0.06371954806145402</v>
+        <v>0.06444601604286988</v>
       </c>
       <c r="C9">
-        <v>0.02928919930673164</v>
+        <v>0.02951805429881215</v>
       </c>
       <c r="D9">
-        <v>0.002625003909417732</v>
+        <v>2.619666004883702E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.996837918828823</v>
+        <v>0.9968650974889554</v>
       </c>
       <c r="B10">
-        <v>0.07284956517588345</v>
+        <v>0.07231701433086474</v>
       </c>
       <c r="C10">
-        <v>0.03156187219461207</v>
+        <v>0.03209701125304722</v>
       </c>
       <c r="D10">
-        <v>0.003309480665656713</v>
+        <v>9.335537928610821E-05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.9961413071932952</v>
+        <v>0.9961000373134966</v>
       </c>
       <c r="B11">
-        <v>0.08001509198846012</v>
+        <v>0.08072054745456157</v>
       </c>
       <c r="C11">
-        <v>0.0358483466974264</v>
+        <v>0.03562158378161576</v>
       </c>
       <c r="D11">
-        <v>0.003870038290811674</v>
+        <v>0.0001079424672863739</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.9952782215819587</v>
+        <v>0.9953053235231115</v>
       </c>
       <c r="B12">
-        <v>0.0891781512712196</v>
+        <v>0.08890362955180316</v>
       </c>
       <c r="C12">
-        <v>0.03801993295290597</v>
+        <v>0.03825466351930287</v>
       </c>
       <c r="D12">
-        <v>0.004796215045002992</v>
+        <v>0.0001958011617262779</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.9943713325990026</v>
+        <v>0.9944501518389398</v>
       </c>
       <c r="B13">
-        <v>0.09641409748091578</v>
+        <v>0.09708424057769355</v>
       </c>
       <c r="C13">
-        <v>0.04259321761120664</v>
+        <v>0.04053931282160471</v>
       </c>
       <c r="D13">
-        <v>0.01076069355332058</v>
+        <v>0.000331443682172606</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.9927239700190142</v>
+        <v>0.9934101808511508</v>
       </c>
       <c r="B14">
-        <v>0.1064824643993541</v>
+        <v>0.1057643975473249</v>
       </c>
       <c r="C14">
-        <v>0.04710497083913132</v>
+        <v>0.04415792922399651</v>
       </c>
       <c r="D14">
-        <v>0.03068755199380316</v>
+        <v>0.0004267076091317491</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.9903294224181436</v>
+        <v>0.9924579593275363</v>
       </c>
       <c r="B15">
-        <v>0.1162160496505774</v>
+        <v>0.113468959287324</v>
       </c>
       <c r="C15">
-        <v>0.05291741919103508</v>
+        <v>0.04638479920885667</v>
       </c>
       <c r="D15">
-        <v>0.05423293872473262</v>
+        <v>0.0006668193366828468</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.9876693976490534</v>
+        <v>0.9913289632617255</v>
       </c>
       <c r="B16">
-        <v>0.1255166476414012</v>
+        <v>0.1214599892681977</v>
       </c>
       <c r="C16">
-        <v>0.05861578625739354</v>
+        <v>0.05013123185326532</v>
       </c>
       <c r="D16">
-        <v>0.07293093797455243</v>
+        <v>0.001103267091877279</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.9845237674546883</v>
+        <v>0.9900408122824375</v>
       </c>
       <c r="B17">
-        <v>0.1350936291845524</v>
+        <v>0.1306190282576368</v>
       </c>
       <c r="C17">
-        <v>0.06401194866289717</v>
+        <v>0.05246993951628106</v>
       </c>
       <c r="D17">
-        <v>0.09146110156209891</v>
+        <v>0.002182869515132511</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.9807971778164787</v>
+        <v>0.9887974412568517</v>
       </c>
       <c r="B18">
-        <v>0.1459840092372903</v>
+        <v>0.1388318628052284</v>
       </c>
       <c r="C18">
-        <v>0.07017093676256952</v>
+        <v>0.05471007798344774</v>
       </c>
       <c r="D18">
-        <v>0.1086351907445324</v>
+        <v>0.00348445131667592</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.9771844432725848</v>
+        <v>0.9874749607683799</v>
       </c>
       <c r="B19">
-        <v>0.1554266114781214</v>
+        <v>0.1469257037165752</v>
       </c>
       <c r="C19">
-        <v>0.07577058392456124</v>
+        <v>0.05711709146604547</v>
       </c>
       <c r="D19">
-        <v>0.1233367377637687</v>
+        <v>0.006608880792926279</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.9735525619659567</v>
+        <v>0.985770046502923</v>
       </c>
       <c r="B20">
-        <v>0.1656188526129094</v>
+        <v>0.1558639235300432</v>
       </c>
       <c r="C20">
-        <v>0.08106828369593225</v>
+        <v>0.06115190434505824</v>
       </c>
       <c r="D20">
-        <v>0.1348841655914486</v>
+        <v>0.01497656016642835</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.9702898009594643</v>
+        <v>0.9831452542269319</v>
       </c>
       <c r="B21">
-        <v>0.1751690210351174</v>
+        <v>0.1657626368835503</v>
       </c>
       <c r="C21">
-        <v>0.08590687165243205</v>
+        <v>0.06731783212101888</v>
       </c>
       <c r="D21">
-        <v>0.1430857282419693</v>
+        <v>0.03763597724252963</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.9670544062249591</v>
+        <v>0.9797614225144733</v>
       </c>
       <c r="B22">
-        <v>0.1846194738989733</v>
+        <v>0.17597387033206</v>
       </c>
       <c r="C22">
-        <v>0.09056491336331558</v>
+        <v>0.07383207124143636</v>
       </c>
       <c r="D22">
-        <v>0.1500647251210398</v>
+        <v>0.06041173039212516</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.9637416998090758</v>
+        <v>0.9766506036107441</v>
       </c>
       <c r="B23">
-        <v>0.1940288689480578</v>
+        <v>0.1855986008654489</v>
       </c>
       <c r="C23">
-        <v>0.09514951593858453</v>
+        <v>0.07895191285612463</v>
       </c>
       <c r="D23">
-        <v>0.1565289228241976</v>
+        <v>0.07398211459478751</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.9603151745021246</v>
+        <v>0.9739938557991799</v>
       </c>
       <c r="B24">
-        <v>0.2034124476454204</v>
+        <v>0.1946496704363586</v>
       </c>
       <c r="C24">
-        <v>0.09969708019758684</v>
+        <v>0.08292574496724819</v>
       </c>
       <c r="D24">
-        <v>0.1627225674696936</v>
+        <v>0.08106044341163189</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.9567634972590008</v>
+        <v>0.9715508570828632</v>
       </c>
       <c r="B25">
-        <v>0.2127698960284525</v>
+        <v>0.2033711254985517</v>
       </c>
       <c r="C25">
-        <v>0.1042188670436721</v>
+        <v>0.08632873703483146</v>
       </c>
       <c r="D25">
-        <v>0.1687335455945295</v>
+        <v>0.08530220733941865</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.95308521822229</v>
+        <v>0.9690867840064026</v>
       </c>
       <c r="B26">
-        <v>0.22209512365454</v>
+        <v>0.2121596306672561</v>
       </c>
       <c r="C26">
-        <v>0.1087167055974183</v>
+        <v>0.08948883721768977</v>
       </c>
       <c r="D26">
-        <v>0.1745938165545642</v>
+        <v>0.08860498966021826</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.9492830717152643</v>
+        <v>0.9665556175859492</v>
       </c>
       <c r="B27">
-        <v>0.2313799169708139</v>
+        <v>0.2209169550537921</v>
       </c>
       <c r="C27">
-        <v>0.1131887525441404</v>
+        <v>0.09255121212241217</v>
       </c>
       <c r="D27">
-        <v>0.1803144200415281</v>
+        <v>0.09165266072230073</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.9453617346808793</v>
+        <v>0.9639414919218756</v>
       </c>
       <c r="B28">
-        <v>0.2406154033168564</v>
+        <v>0.2296527936810638</v>
       </c>
       <c r="C28">
-        <v>0.1176317213072792</v>
+        <v>0.09554332669957818</v>
       </c>
       <c r="D28">
-        <v>0.1858983497240138</v>
+        <v>0.09459316692599329</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.9413268858973042</v>
+        <v>0.9612423383720003</v>
       </c>
       <c r="B29">
-        <v>0.2497926906925709</v>
+        <v>0.238366323200659</v>
       </c>
       <c r="C29">
-        <v>0.122041790304511</v>
+        <v>0.09846980166571236</v>
       </c>
       <c r="D29">
-        <v>0.1913455172788721</v>
+        <v>0.09745953542287884</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.937184775664867</v>
+        <v>0.9584595398911702</v>
       </c>
       <c r="B30">
-        <v>0.2589031789913274</v>
+        <v>0.2470543326202236</v>
       </c>
       <c r="C30">
-        <v>0.1264149916804876</v>
+        <v>0.1013297483858676</v>
       </c>
       <c r="D30">
-        <v>0.1966547483499947</v>
+        <v>0.1002584122018654</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.9329420046495249</v>
+        <v>0.9555954985965275</v>
       </c>
       <c r="B31">
-        <v>0.2679387303064026</v>
+        <v>0.2557131077017496</v>
       </c>
       <c r="C31">
-        <v>0.1307473848654674</v>
+        <v>0.1041207938348079</v>
       </c>
       <c r="D31">
-        <v>0.2018246122581688</v>
+        <v>0.1029898533972024</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.9286053929041146</v>
+        <v>0.9526530138969694</v>
       </c>
       <c r="B32">
-        <v>0.2768917721327558</v>
+        <v>0.2643389134565358</v>
       </c>
       <c r="C32">
-        <v>0.1350351355240149</v>
+        <v>0.106840089309227</v>
       </c>
       <c r="D32">
-        <v>0.2068537719467259</v>
+        <v>0.1056521143282752</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.9241818907185457</v>
+        <v>0.9496351056127251</v>
       </c>
       <c r="B33">
-        <v>0.2857553637617991</v>
+        <v>0.2729281370554695</v>
       </c>
       <c r="C33">
-        <v>0.1392745496742413</v>
+        <v>0.1094845808582087</v>
       </c>
       <c r="D33">
-        <v>0.2117411267616496</v>
+        <v>0.1082428969754662</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.9196785112277354</v>
+        <v>0.946544953698325</v>
       </c>
       <c r="B34">
-        <v>0.2945232390606017</v>
+        <v>0.2814773418591367</v>
       </c>
       <c r="C34">
-        <v>0.1434620844873533</v>
+        <v>0.1120510855546253</v>
       </c>
       <c r="D34">
-        <v>0.2164858608633169</v>
+        <v>0.110759698781552</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.9151022763153172</v>
+        <v>0.943385870048277</v>
       </c>
       <c r="B35">
-        <v>0.303189831988175</v>
+        <v>0.2899832958439366</v>
       </c>
       <c r="C35">
-        <v>0.1475943456095755</v>
+        <v>0.1145363129975967</v>
       </c>
       <c r="D35">
-        <v>0.2210874460605761</v>
+        <v>0.1131999175338039</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.9104601721776916</v>
+        <v>0.9401612792708961</v>
       </c>
       <c r="B36">
-        <v>0.311750288450007</v>
+        <v>0.2984429913524195</v>
       </c>
       <c r="C36">
-        <v>0.1516680758792659</v>
+        <v>0.1169368701138175</v>
       </c>
       <c r="D36">
-        <v>0.2255456213021808</v>
+        <v>0.1155608855985271</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.9057591129041664</v>
+        <v>0.9368747017939147</v>
       </c>
       <c r="B37">
-        <v>0.3202004669819477</v>
+        <v>0.3068536609006263</v>
       </c>
       <c r="C37">
-        <v>0.1556801381185976</v>
+        <v>0.1192492602815865</v>
       </c>
       <c r="D37">
-        <v>0.2298603596337884</v>
+        <v>0.117839882267173</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.901005911215966</v>
+        <v>0.9335297373558296</v>
       </c>
       <c r="B38">
-        <v>0.3285369302919364</v>
+        <v>0.3152127903871207</v>
       </c>
       <c r="C38">
-        <v>0.1596274936591346</v>
+        <v>0.1214698801436971</v>
       </c>
       <c r="D38">
-        <v>0.2340318282976513</v>
+        <v>0.1200341387547596</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.8962072557844557</v>
+        <v>0.9301300483442885</v>
       </c>
       <c r="B39">
-        <v>0.3367569294638306</v>
+        <v>0.3235181300691465</v>
       </c>
       <c r="C39">
-        <v>0.1635071777429086</v>
+        <v>0.1235950151877844</v>
       </c>
       <c r="D39">
-        <v>0.2380603452151087</v>
+        <v>0.1221408404439142</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.8913696946198689</v>
+        <v>0.9266793428820105</v>
       </c>
       <c r="B40">
-        <v>0.3448583824756905</v>
+        <v>0.3317677033874971</v>
       </c>
       <c r="C40">
-        <v>0.1673162726396271</v>
+        <v>0.1256208344581428</v>
       </c>
       <c r="D40">
-        <v>0.2419463338418542</v>
+        <v>0.1241571279258291</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.8864996240194226</v>
+        <v>0.9231813576977013</v>
       </c>
       <c r="B41">
-        <v>0.3528398485424361</v>
+        <v>0.3399598136481198</v>
       </c>
       <c r="C41">
-        <v>0.1710518791143303</v>
+        <v>0.1275433845342035</v>
       </c>
       <c r="D41">
-        <v>0.2456902776778713</v>
+        <v>0.1260800974195558</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.8816032825458828</v>
+        <v>0.9196398408560948</v>
       </c>
       <c r="B42">
-        <v>0.3607004996409484</v>
+        <v>0.3480930485601611</v>
       </c>
       <c r="C42">
-        <v>0.1747110867165251</v>
+        <v>0.1293585828400498</v>
       </c>
       <c r="D42">
-        <v>0.2492926752662931</v>
+        <v>0.1279068008351535</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.8766867494978313</v>
+        <v>0.9160585344221862</v>
       </c>
       <c r="B43">
-        <v>0.3684400904137467</v>
+        <v>0.3561662826412367</v>
       </c>
       <c r="C43">
-        <v>0.1782909432204171</v>
+        <v>0.1310622103328816</v>
       </c>
       <c r="D43">
-        <v>0.2527539962026539</v>
+        <v>0.129634245646969</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.8717559473386233</v>
+        <v>0.9124411571218058</v>
       </c>
       <c r="B44">
-        <v>0.3760589274815762</v>
+        <v>0.3641786775157604</v>
       </c>
       <c r="C44">
-        <v>0.1817884234183998</v>
+        <v>0.1326499036220445</v>
       </c>
       <c r="D44">
-        <v>0.2560746384400425</v>
+        <v>0.131259394719593</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.8668166475723392</v>
+        <v>0.9087913870419654</v>
       </c>
       <c r="B45">
-        <v>0.383557839033247</v>
+        <v>0.3721296801455994</v>
       </c>
       <c r="C45">
-        <v>0.1852003973546996</v>
+        <v>0.1341171465825172</v>
       </c>
       <c r="D45">
-        <v>0.2592548869881884</v>
+        <v>0.1327791662334045</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.8618744795895387</v>
+        <v>0.9051128443931853</v>
       </c>
       <c r="B46">
-        <v>0.3909381454082679</v>
+        <v>0.3800190190419279</v>
       </c>
       <c r="C46">
-        <v>0.1885235979836639</v>
+        <v>0.1354592615437231</v>
       </c>
       <c r="D46">
-        <v>0.262294873949721</v>
+        <v>0.1341904338726032</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.8569349420518272</v>
+        <v>0.9014090743340151</v>
       </c>
       <c r="B47">
-        <v>0.3982016312446078</v>
+        <v>0.3878466985120104</v>
       </c>
       <c r="C47">
-        <v>0.1917545881461801</v>
+        <v>0.1366714001551094</v>
       </c>
       <c r="D47">
-        <v>0.2651945397055788</v>
+        <v>0.1354900274605831</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.8520034164423833</v>
+        <v>0.8976835298361717</v>
       </c>
       <c r="B48">
-        <v>0.4053505196281855</v>
+        <v>0.3956129909943658</v>
       </c>
       <c r="C48">
-        <v>0.1948897266700353</v>
+        <v>0.1377485340541542</v>
       </c>
       <c r="D48">
-        <v>0.2679535949490989</v>
+        <v>0.1366747342536086</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.8470851824784691</v>
+        <v>0.8939395545480306</v>
       </c>
       <c r="B49">
-        <v>0.4123874485549029</v>
+        <v>0.403318427530254</v>
       </c>
       <c r="C49">
-        <v>0.1979251333026525</v>
+        <v>0.1386854454908235</v>
       </c>
       <c r="D49">
-        <v>0.2705714831738992</v>
+        <v>0.1377413011336956</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.842185435155135</v>
+        <v>0.8901803655953056</v>
       </c>
       <c r="B50">
-        <v>0.4193154499116838</v>
+        <v>0.4109637864087643</v>
       </c>
       <c r="C50">
-        <v>0.2008566520687226</v>
+        <v>0.1394767180958443</v>
       </c>
       <c r="D50">
-        <v>0.273047343143386</v>
+        <v>0.1386864379757163</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.83730930325622</v>
+        <v>0.8864090362413712</v>
       </c>
       <c r="B51">
-        <v>0.4261379311140914</v>
+        <v>0.4185500800071623</v>
       </c>
       <c r="C51">
-        <v>0.2036798125146954</v>
+        <v>0.1401167280194802</v>
       </c>
       <c r="D51">
-        <v>0.2753799708046396</v>
+        <v>0.1395068225025438</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>0.8324618692205539</v>
+        <v>0.8826284783165811</v>
       </c>
       <c r="B52">
-        <v>0.4328586595098172</v>
+        <v>0.4260785398279092</v>
       </c>
       <c r="C52">
-        <v>0.2063897881713198</v>
+        <v>0.1405996357140275</v>
       </c>
       <c r="D52">
-        <v>0.277567780046214</v>
+        <v>0.1401991069863004</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>0.8276481902871995</v>
+        <v>0.8788414243168502</v>
       </c>
       <c r="B53">
-        <v>0.4394817496595583</v>
+        <v>0.4335505997092737</v>
       </c>
       <c r="C53">
-        <v>0.2089813514477013</v>
+        <v>0.1409193786883881</v>
       </c>
       <c r="D53">
-        <v>0.2796087616252204</v>
+        <v>0.140759927204222</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>0.8228733208709298</v>
+        <v>0.8750504090676662</v>
       </c>
       <c r="B54">
-        <v>0.4460116536196663</v>
+        <v>0.4409678771582812</v>
       </c>
       <c r="C54">
-        <v>0.2114488240667996</v>
+        <v>0.1410696656284093</v>
       </c>
       <c r="D54">
-        <v>0.2815004394935582</v>
+        <v>0.1411859141151058</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>0.8181423361491111</v>
+        <v>0.8712577508515116</v>
       </c>
       <c r="B55">
-        <v>0.4524531543559071</v>
+        <v>0.4483321527234754</v>
       </c>
       <c r="C55">
-        <v>0.213786022049259</v>
+        <v>0.1410439723539994</v>
       </c>
       <c r="D55">
-        <v>0.2832398236304674</v>
+        <v>0.141473708787548</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>0.8134603568823725</v>
+        <v>0.8674655319056473</v>
       </c>
       <c r="B56">
-        <v>0.458811362406037</v>
+        <v>0.4556453472914596</v>
       </c>
       <c r="C56">
-        <v>0.2159861941274842</v>
+        <v>0.1408355401753247</v>
       </c>
       <c r="D56">
-        <v>0.2848233583367844</v>
+        <v>0.1416199811849366</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>0.8088325755472887</v>
+        <v>0.8636755782147052</v>
       </c>
       <c r="B57">
-        <v>0.46509171588301</v>
+        <v>0.4629094971563876</v>
       </c>
       <c r="C57">
-        <v>0.2180419523014753</v>
+        <v>0.1404373773177719</v>
       </c>
       <c r="D57">
-        <v>0.2862468647637874</v>
+        <v>0.1416214534949451</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>0.8042642839277251</v>
+        <v>0.8598894385501896</v>
       </c>
       <c r="B58">
-        <v>0.4712999838799459</v>
+        <v>0.4701267266768732</v>
       </c>
       <c r="C58">
-        <v>0.2199451930130292</v>
+        <v>0.139842264211073</v>
       </c>
       <c r="D58">
-        <v>0.287505476232102</v>
+        <v>0.1414749287833304</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>0.7997609023878676</v>
+        <v>0.8561083627487419</v>
       </c>
       <c r="B59">
-        <v>0.4774422733127773</v>
+        <v>0.4772992183017966</v>
       </c>
       <c r="C59">
-        <v>0.2216870071007727</v>
+        <v>0.1390427635842765</v>
       </c>
       <c r="D59">
-        <v>0.2885935646343709</v>
+        <v>0.1411773258530193</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>0.7953280111295962</v>
+        <v>0.852333279274998</v>
       </c>
       <c r="B60">
-        <v>0.483525039223889</v>
+        <v>0.484429179717546</v>
       </c>
       <c r="C60">
-        <v>0.2232575762918693</v>
+        <v>0.138031236477188</v>
       </c>
       <c r="D60">
-        <v>0.2895046558942662</v>
+        <v>0.1407257212988888</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>0.7909713838169001</v>
+        <v>0.8485647721856139</v>
       </c>
       <c r="B61">
-        <v>0.4895550985720689</v>
+        <v>0.4915188078472354</v>
       </c>
       <c r="C61">
-        <v>0.2246460534705144</v>
+        <v>0.1367998654721904</v>
       </c>
       <c r="D61">
-        <v>0.2902313320525417</v>
+        <v>0.1401173998645436</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>0.7866970240301837</v>
+        <v>0.8448030577010378</v>
       </c>
       <c r="B62">
-        <v>0.4955396475480225</v>
+        <v>0.4985702494213472</v>
       </c>
       <c r="C62">
-        <v>0.2258404233140188</v>
+        <v>0.1353406866689902</v>
       </c>
       <c r="D62">
-        <v>0.2907651170401614</v>
+        <v>0.1393499143267724</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>0.7825112050953037</v>
+        <v>0.841047960703609</v>
       </c>
       <c r="B63">
-        <v>0.5014862824742995</v>
+        <v>0.5055855578441518</v>
       </c>
       <c r="C63">
-        <v>0.2268273390679475</v>
+        <v>0.1336456321685656</v>
       </c>
       <c r="D63">
-        <v>0.291096342542735</v>
+        <v>0.1384211562514314</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>0.7784205139190715</v>
+        <v>0.8372988916168748</v>
       </c>
       <c r="B64">
-        <v>0.507403024365138</v>
+        <v>0.5125666461077473</v>
       </c>
       <c r="C64">
-        <v>0.2275919301898245</v>
+        <v>0.1317065850993309</v>
       </c>
       <c r="D64">
-        <v>0.2912139895120939</v>
+        <v>0.1373294390743703</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>0.7744318995582904</v>
+        <v>0.8335548242833681</v>
       </c>
       <c r="B65">
-        <v>0.5132983472246432</v>
+        <v>0.5195152355640614</v>
       </c>
       <c r="C65">
-        <v>0.228117574252532</v>
+        <v>0.1295154495035203</v>
       </c>
       <c r="D65">
-        <v>0.2911054997765044</v>
+        <v>0.1360735950529794</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>0.7705527273559757</v>
+        <v>0.8298142756468923</v>
       </c>
       <c r="B66">
-        <v>0.5191812101375166</v>
+        <v>0.5264328004650746</v>
       </c>
       <c r="C66">
-        <v>0.2283856247613817</v>
+        <v>0.1270642376963604</v>
       </c>
       <c r="D66">
-        <v>0.2907565507546904</v>
+        <v>0.1346530876948805</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>0.7667908395977576</v>
+        <v>0.8260752882588847</v>
       </c>
       <c r="B67">
-        <v>0.525061093137096</v>
+        <v>0.533320508335599</v>
       </c>
       <c r="C67">
-        <v>0.2283750842611625</v>
+        <v>0.1243451780010195</v>
       </c>
       <c r="D67">
-        <v>0.2901507843714203</v>
+        <v>0.133068141283156</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>0.763154623772049</v>
+        <v>0.8223354168616159</v>
       </c>
       <c r="B68">
-        <v>0.5309480366947416</v>
+        <v>0.5401791564660574</v>
       </c>
       <c r="C68">
-        <v>0.2280622090934954</v>
+        <v>0.1213508460280228</v>
       </c>
       <c r="D68">
-        <v>0.2892694787369325</v>
+        <v>0.1313198890607754</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>0.7596530896531116</v>
+        <v>0.8185917205440059</v>
       </c>
       <c r="B69">
-        <v>0.5368526844230095</v>
+        <v>0.5470091051217001</v>
       </c>
       <c r="C69">
-        <v>0.2274200281317946</v>
+        <v>0.11807432287973</v>
       </c>
       <c r="D69">
-        <v>0.2880911477515821</v>
+        <v>0.1294105414842789</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>0.7562959565515468</v>
+        <v>0.8148407622023013</v>
       </c>
       <c r="B70">
-        <v>0.5427863281607318</v>
+        <v>0.5538102084772697</v>
       </c>
       <c r="C70">
-        <v>0.2264177523733805</v>
+        <v>0.1145093837792941</v>
       </c>
       <c r="D70">
-        <v>0.2865910491898826</v>
+        <v>0.1273435756778573</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>0.7530937521613837</v>
+        <v>0.8110786172429125</v>
       </c>
       <c r="B71">
-        <v>0.5487609539125285</v>
+        <v>0.5605817448193109</v>
       </c>
       <c r="C71">
-        <v>0.2250200448312431</v>
+        <v>0.1106507205981768</v>
       </c>
       <c r="D71">
-        <v>0.2847405755080319</v>
+        <v>0.1251239467798472</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>0.7500579244178819</v>
+        <v>0.807300893603096</v>
       </c>
       <c r="B72">
-        <v>0.5547892859897418</v>
+        <v>0.5673223482253411</v>
       </c>
       <c r="C72">
-        <v>0.223186109901003</v>
+        <v>0.1064942015234708</v>
       </c>
       <c r="D72">
-        <v>0.2825064928743917</v>
+        <v>0.1227583212397677</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>0.7472009675552017</v>
+        <v>0.8035027651898126</v>
       </c>
       <c r="B73">
-        <v>0.5608848248850019</v>
+        <v>0.5740299447352127</v>
       </c>
       <c r="C73">
-        <v>0.220868547035174</v>
+        <v>0.1020371705912348</v>
       </c>
       <c r="D73">
-        <v>0.2798499816488511</v>
+        <v>0.1202553312637273</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>0.7445365629127947</v>
+        <v>0.7996790206888794</v>
       </c>
       <c r="B74">
-        <v>0.5670618714800815</v>
+        <v>0.5807016969661778</v>
       </c>
       <c r="C74">
-        <v>0.2180118932638919</v>
+        <v>0.09727878893215401</v>
       </c>
       <c r="D74">
-        <v>0.2767254140750416</v>
+        <v>0.1176258484967049</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>0.7420797336017158</v>
+        <v>0.7958241293058287</v>
       </c>
       <c r="B75">
-        <v>0.5733355254159271</v>
+        <v>0.5873339621582827</v>
       </c>
       <c r="C75">
-        <v>0.2145507500057379</v>
+        <v>0.09222041824779953</v>
       </c>
       <c r="D75">
-        <v>0.2730787797424483</v>
+        <v>0.1148832736662451</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>0.7398470091904074</v>
+        <v>0.7919323242915801</v>
       </c>
       <c r="B76">
-        <v>0.5797216376133878</v>
+        <v>0.5939222697082072</v>
       </c>
       <c r="C76">
-        <v>0.2104073473090741</v>
+        <v>0.08686604518779643</v>
       </c>
       <c r="D76">
-        <v>0.2688456324235527</v>
+        <v>0.1120438373147716</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>0.7378565907452792</v>
+        <v>0.787997704008222</v>
       </c>
       <c r="B77">
-        <v>0.5862366838743468</v>
+        <v>0.6004613252540305</v>
       </c>
       <c r="C77">
-        <v>0.2054883362640314</v>
+        <v>0.08122274288832917</v>
       </c>
       <c r="D77">
-        <v>0.2639483768338103</v>
+        <v>0.109126904975998</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>0.7361284952479128</v>
+        <v>0.7840143487484003</v>
       </c>
       <c r="B78">
-        <v>0.5928975043827661</v>
+        <v>0.6069450491587409</v>
       </c>
       <c r="C78">
-        <v>0.1996805069311753</v>
+        <v>0.07530116297254669</v>
       </c>
       <c r="D78">
-        <v>0.2582926304261124</v>
+        <v>0.1061552783110548</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>0.7346846364745232</v>
+        <v>0.7799764495173926</v>
       </c>
       <c r="B79">
-        <v>0.5997208157518072</v>
+        <v>0.6133666576040652</v>
       </c>
       <c r="C79">
-        <v>0.1928449873815103</v>
+        <v>0.06911604789872336</v>
       </c>
       <c r="D79">
-        <v>0.2517622666805127</v>
+        <v>0.1031554819712515</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>0.7335487565673319</v>
+        <v>0.7758784425592885</v>
       </c>
       <c r="B80">
-        <v>0.6067223348478397</v>
+        <v>0.6197187942028266</v>
       </c>
       <c r="C80">
-        <v>0.1848092616871879</v>
+        <v>0.06268674988045579</v>
       </c>
       <c r="D80">
-        <v>0.2442125445793964</v>
+        <v>0.1001580245062396</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>0.7327460375588138</v>
+        <v>0.7717151406761065</v>
       </c>
       <c r="B81">
-        <v>0.6139152314740478</v>
+        <v>0.6259937188009042</v>
       </c>
       <c r="C81">
-        <v>0.175356007763079</v>
+        <v>0.05603773904029751</v>
       </c>
       <c r="D81">
-        <v>0.2354604076005533</v>
+        <v>0.09719762073385994</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>0.7323020500618237</v>
+        <v>0.7674818495629612</v>
       </c>
       <c r="B82">
-        <v>0.6213073994262392</v>
+        <v>0.6321835577206556</v>
       </c>
       <c r="C82">
-        <v>0.164207236746263</v>
+        <v>0.04919908048721711</v>
       </c>
       <c r="D82">
-        <v>0.2252705180302355</v>
+        <v>0.0943133628829078</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>0.7322403382329893</v>
+        <v>0.7631744547678032</v>
       </c>
       <c r="B83">
-        <v>0.6288965994667951</v>
+        <v>0.6382806159232027</v>
       </c>
       <c r="C83">
-        <v>0.1510014409396381</v>
+        <v>0.04220685825974107</v>
       </c>
       <c r="D83">
-        <v>0.2133347582502488</v>
+        <v>0.09154882873311675</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>0.7325771683350168</v>
+        <v>0.7587894628529275</v>
       </c>
       <c r="B84">
-        <v>0.6366616734223268</v>
+        <v>0.6442777464060585</v>
       </c>
       <c r="C84">
-        <v>0.1352604275655066</v>
+        <v>0.03510352429361974</v>
       </c>
       <c r="D84">
-        <v>0.1992416190561778</v>
+        <v>0.08895211707128334</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>0.7333102362595196</v>
+        <v>0.7543239792680568</v>
       </c>
       <c r="B85">
-        <v>0.6445463429365449</v>
+        <v>0.6501687657802817</v>
       </c>
       <c r="C85">
-        <v>0.1163417072163452</v>
+        <v>0.02793815362663579</v>
       </c>
       <c r="D85">
-        <v>0.1824300314260773</v>
+        <v>0.08657580422314234</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>0.7343941184960087</v>
+        <v>0.7497756056120121</v>
       </c>
       <c r="B86">
-        <v>0.6524288723931874</v>
+        <v>0.6559488978135624</v>
       </c>
       <c r="C86">
-        <v>0.09337434391809118</v>
+        <v>0.02076659424986274</v>
       </c>
       <c r="D86">
-        <v>0.1621205634214554</v>
+        <v>0.08447682078283514</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>0.7356862006180476</v>
+        <v>0.7451422402094544</v>
       </c>
       <c r="B87">
-        <v>0.6600653131372524</v>
+        <v>0.6616152194893168</v>
       </c>
       <c r="C87">
-        <v>0.06519209235097567</v>
+        <v>0.01365151494002887</v>
       </c>
       <c r="D87">
-        <v>0.1372209448593935</v>
+        <v>0.08271625798826462</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>0.7368302159159459</v>
+        <v>0.7404217661270618</v>
       </c>
       <c r="B88">
-        <v>0.6669883922550108</v>
+        <v>0.6671670779929992</v>
       </c>
       <c r="C88">
-        <v>0.03034744946958777</v>
+        <v>0.006662395101144374</v>
       </c>
       <c r="D88">
-        <v>0.1062391162473928</v>
+        <v>0.08135914686795945</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>0.7354415468453205</v>
+        <v>0.7358698738775873</v>
       </c>
       <c r="B89">
-        <v>0.6727784333436168</v>
+        <v>0.6722076175847677</v>
       </c>
       <c r="C89">
-        <v>8.583417699292488E-05</v>
+        <v>0.001164267955069538</v>
       </c>
       <c r="D89">
-        <v>0.08059096372401166</v>
+        <v>0.08143151761156903</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>0.7301088591799748</v>
+        <v>0.7293085937531817</v>
       </c>
       <c r="B90">
-        <v>0.6777534837411698</v>
+        <v>0.6786495870353888</v>
       </c>
       <c r="C90">
-        <v>-0.0001467498659821309</v>
+        <v>-0.0006368952620580295</v>
       </c>
       <c r="D90">
-        <v>0.0871277653110675</v>
+        <v>0.08685221620015278</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>0.7241592265393214</v>
+        <v>0.7240819389519781</v>
       </c>
       <c r="B91">
-        <v>0.683252516675517</v>
+        <v>0.6834283525492829</v>
       </c>
       <c r="C91">
-        <v>-7.492677872699372E-05</v>
+        <v>-0.001533555711783493</v>
       </c>
       <c r="D91">
-        <v>0.09359170615242619</v>
+        <v>0.09289069287175965</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>0.7184045777611605</v>
+        <v>0.7183180254685315</v>
       </c>
       <c r="B92">
-        <v>0.6883883007776831</v>
+        <v>0.6886762924113049</v>
       </c>
       <c r="C92">
-        <v>-0.0001655498817635085</v>
+        <v>-0.001988367379961116</v>
       </c>
       <c r="D92">
-        <v>0.1000818794660621</v>
+        <v>0.09869257800245654</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>0.7120856361241588</v>
+        <v>0.7125710648069882</v>
       </c>
       <c r="B93">
-        <v>0.693969503877111</v>
+        <v>0.6938621552582827</v>
       </c>
       <c r="C93">
-        <v>5.430702146400463E-05</v>
+        <v>-0.002668854571869907</v>
       </c>
       <c r="D93">
-        <v>0.1064911806909662</v>
+        <v>0.1038781224100633</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>0.7059599258009305</v>
+        <v>0.7067985759873225</v>
       </c>
       <c r="B94">
-        <v>0.6991911833987648</v>
+        <v>0.6989916686209504</v>
       </c>
       <c r="C94">
-        <v>0.0001103263933930868</v>
+        <v>-0.004360503348365885</v>
       </c>
       <c r="D94">
-        <v>0.1129259051266212</v>
+        <v>0.1087538789714714</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>0.6999043470098141</v>
+        <v>0.7010830937288738</v>
       </c>
       <c r="B95">
-        <v>0.7041906540290216</v>
+        <v>0.7040436857551952</v>
       </c>
       <c r="C95">
-        <v>7.04881849745914E-05</v>
+        <v>-0.006831928788668716</v>
       </c>
       <c r="D95">
-        <v>0.1193709464080784</v>
+        <v>0.1129526847171762</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>0.6940311036693686</v>
+        <v>0.6954432859930275</v>
       </c>
       <c r="B96">
-        <v>0.708860511693554</v>
+        <v>0.7090140778636823</v>
       </c>
       <c r="C96">
-        <v>-0.000150388727655533</v>
+        <v>-0.01018969981244066</v>
       </c>
       <c r="D96">
-        <v>0.1258474452830157</v>
+        <v>0.1164209748115212</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>0.6878692162746733</v>
+        <v>0.6898961557174613</v>
       </c>
       <c r="B97">
-        <v>0.7136796769861177</v>
+        <v>0.7138947947772336</v>
       </c>
       <c r="C97">
-        <v>-0.0002264587250147339</v>
+        <v>-0.01454739499788793</v>
       </c>
       <c r="D97">
-        <v>0.1322770149160591</v>
+        <v>0.1191045323025757</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>0.6816072050089423</v>
+        <v>0.6844568780911361</v>
       </c>
       <c r="B98">
-        <v>0.7184552758853117</v>
+        <v>0.7186720674414616</v>
       </c>
       <c r="C98">
-        <v>-0.0003641077644549484</v>
+        <v>-0.02002654451087207</v>
       </c>
       <c r="D98">
-        <v>0.138684902054961</v>
+        <v>0.1209470091738738</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>0.6746281505438143</v>
+        <v>0.6791387367646563</v>
       </c>
       <c r="B99">
-        <v>0.7237828111701219</v>
+        <v>0.72332416588629</v>
       </c>
       <c r="C99">
-        <v>0.0001339084790656087</v>
+        <v>-0.02675727007293769</v>
       </c>
       <c r="D99">
-        <v>0.1449664886000471</v>
+        <v>0.1218883742153184</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>0.6682864459355072</v>
+        <v>0.6739532293796363</v>
       </c>
       <c r="B100">
-        <v>0.7283432217123984</v>
+        <v>0.7278186171364877</v>
       </c>
       <c r="C100">
-        <v>3.414946594490178E-05</v>
+        <v>-0.03487872106705693</v>
       </c>
       <c r="D100">
-        <v>0.1513584368256572</v>
+        <v>0.1218629557126226</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>0.6617304507347711</v>
+        <v>0.6689104542029733</v>
       </c>
       <c r="B101">
-        <v>0.7329673362930813</v>
+        <v>0.7321087523789943</v>
       </c>
       <c r="C101">
-        <v>4.112899446959012E-05</v>
+        <v>-0.04453948364084873</v>
       </c>
       <c r="D101">
-        <v>0.1577076180981374</v>
+        <v>0.1207965783664875</v>
       </c>
     </row>
   </sheetData>
